--- a/data/DMM  Governance/DMM  Governance20170701.xlsx
+++ b/data/DMM  Governance/DMM  Governance20170701.xlsx
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
